--- a/VerveStacks_FRA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_FRA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A68F58-3A17-49B8-9082-E6CE6C6E1763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76408F-8D90-40DC-8CB4-638E1518C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S6c1128h08,S6c1128h18,S6c1130h09,S6c1202h11,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S6c1126h10,S6c1127h09,S6c1127h11,S6c1129h12,S6c1130h10,S6c1130h14,S6c1130h15,S6c1201h16,S1b0108h10,S1b0109h07,S1b0113h09,S6c1126h11,S6c1127h15,S6c1130h07,S6c1201h09,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S6c1126h17,S6c1201h15,S6c1202h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S6c1126h14,S6c1129h17,S6c1130h18,S6c1202h10,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6c1127h10,S6c1127h16,S6c1127h17,S6c1128h14,S6c1201h07,S6c1201h08,S6c1202h13,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S6c1128h13,S6c1129h08,S6c1129h15,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S6c1126h15,S6c1127h13,S6c1129h18,S6c1130h11,S6c1201h11,S6c1202h08,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S6c1126h07,S6c1126h08,S6c1126h13,S6c1127h14,S6c1128h07,S6c1128h09,S6c1128h10,S6c1128h16,S6c1129h10,S6c1201h13,S6c1202h14,S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S6c1126h09,S6c1126h18,S6c1128h11,S6c1130h13,S6c1202h12,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S6aH5,S6c1127h08,S6c1127h18,S6c1128h12,S6c1129h09,S6c1129h11,S6c1129h16,S6c1130h08,S6c1130h17,S6c1201h12,S6c1202h15,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S6c1127h07,S6c1129h07,S6c1129h14,S1b0110h15,S1b0111h13,S1b0114h12,S6c1201h10,S6c1202h07,S6c1202h18,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S6c1126h16,S6c1128h15,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S6c1126h12,S6c1127h12,S6c1130h16,S6c1201h14,S6c1201h17,S6c1202h17,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S6aH3,S6aH4,S6c1128h17,S6c1129h13,S6c1130h12,S6c1201h18,S6c1202h09</t>
-  </si>
-  <si>
-    <t>S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1126h05,S6c1128h21,S6c1128h23,S6c1129h23,S6c1130h21,S6c1201h23,S6c1202h19,S6c1202h23,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S6c1128h20,S6c1130h01,S6c1201h24,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S6aH8,S6c1129h01,S6c1129h22,S6c1129h24,S6c1201h02,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S6aH7,S6c1127h24,S6c1130h22,S6c1201h03,S6c1201h21,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S6c1126h19,S6c1126h20,S6c1130h23,S6c1201h04,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S6c1126h22,S6c1127h01,S6c1128h01,S6c1129h03,S6c1201h06,S6c1202h22,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S6c1126h02,S6c1127h21,S6c1128h04,S6c1129h05,S6c1129h06,S6c1129h20,S6c1130h24,S6c1201h05,S6c1201h22,S6c1202h06,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S6c1129h02,S6c1129h21,S6c1130h06,S6c1202h01,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S6c1127h19,S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S6c1127h03,S6c1128h22,S6c1128h24,S6c1130h02,S6c1201h01,S6c1201h20,S6c1202h03,S6c1202h05,S6c1202h20,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S6c1127h23,S6c1202h02,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S6c1126h04,S6c1126h21,S6c1130h05,S6c1202h21,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S6c1126h01,S6c1126h03,S6c1127h02,S6c1127h22,S6c1130h20,S6c1202h24,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S6c1127h04,S6c1127h05,S6c1127h06,S6c1128h02,S6c1130h19,S6c1201h19,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S6aH1,S6c1126h06,S6c1126h23,S6c1128h06,S6c1128h19,S6c1129h19,S6c1130h04,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S6c1126h24,S6c1127h20,S6c1128h03,S6c1128h05,S6c1129h04,S6c1130h03,S6c1202h04</t>
+    <t>S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S6c1126h09,S6c1126h18,S6c1128h11,S6c1130h13,S6c1202h12,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S6c1128h13,S6c1129h08,S6c1129h15,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S6c1126h07,S6c1126h08,S6c1126h13,S6c1127h14,S6c1128h07,S6c1128h09,S6c1128h10,S6c1128h16,S6c1129h10,S6c1201h13,S6c1202h14,S1b0108h10,S1b0109h07,S1b0113h09,S6c1126h11,S6c1127h15,S6c1130h07,S6c1201h09,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S6c1126h15,S6c1127h13,S6c1129h18,S6c1130h11,S6c1201h11,S6c1202h08,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S6c1128h08,S6c1128h18,S6c1130h09,S6c1202h11,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S6c1126h10,S6c1127h09,S6c1127h11,S6c1129h12,S6c1130h10,S6c1130h14,S6c1130h15,S6c1201h16,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S6c1126h12,S6c1127h12,S6c1130h16,S6c1201h14,S6c1201h17,S6c1202h17,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S6aH5,S6c1127h08,S6c1127h18,S6c1128h12,S6c1129h09,S6c1129h11,S6c1129h16,S6c1130h08,S6c1130h17,S6c1201h12,S6c1202h15,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6c1127h10,S6c1127h16,S6c1127h17,S6c1128h14,S6c1201h07,S6c1201h08,S6c1202h13,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S6c1126h17,S6c1201h15,S6c1202h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S6c1126h14,S6c1129h17,S6c1130h18,S6c1202h10,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S6c1127h07,S6c1129h07,S6c1129h14,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S6aH3,S6aH4,S6c1128h17,S6c1129h13,S6c1130h12,S6c1201h18,S6c1202h09,S1b0110h15,S1b0111h13,S1b0114h12,S6c1201h10,S6c1202h07,S6c1202h18,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S6c1126h16,S6c1128h15</t>
+  </si>
+  <si>
+    <t>S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S6c1127h03,S6c1128h22,S6c1128h24,S6c1130h02,S6c1201h01,S6c1201h20,S6c1202h03,S6c1202h05,S6c1202h20,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S6c1126h02,S6c1127h21,S6c1128h04,S6c1129h05,S6c1129h06,S6c1129h20,S6c1130h24,S6c1201h05,S6c1201h22,S6c1202h06,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S6c1127h19,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S6aH8,S6c1129h01,S6c1129h22,S6c1129h24,S6c1201h02,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S6c1129h02,S6c1129h21,S6c1130h06,S6c1202h01,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1126h05,S6c1128h21,S6c1128h23,S6c1129h23,S6c1130h21,S6c1201h23,S6c1202h19,S6c1202h23,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S6c1128h20,S6c1130h01,S6c1201h24,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S6aH1,S6c1126h06,S6c1126h23,S6c1128h06,S6c1128h19,S6c1129h19,S6c1130h04,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S6c1127h23,S6c1202h02,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S6c1126h22,S6c1127h01,S6c1128h01,S6c1129h03,S6c1201h06,S6c1202h22,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S6aH7,S6c1127h24,S6c1130h22,S6c1201h03,S6c1201h21,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S6c1126h19,S6c1126h20,S6c1130h23,S6c1201h04,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S6c1126h04,S6c1126h21,S6c1130h05,S6c1202h21,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S6c1126h24,S6c1127h20,S6c1128h03,S6c1128h05,S6c1129h04,S6c1130h03,S6c1202h04,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S6c1126h01,S6c1126h03,S6c1127h02,S6c1127h22,S6c1130h20,S6c1202h24,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S6c1127h04,S6c1127h05,S6c1127h06,S6c1128h02,S6c1130h19,S6c1201h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1126h05,S6c1128h21,S6c1128h23,S6c1129h23,S6c1130h21,S6c1201h23,S6c1202h19,S6c1202h23,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S6c1128h20,S6c1130h01,S6c1201h24,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S6aH8,S6c1129h01,S6c1129h22,S6c1129h24,S6c1201h02,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S6aH7,S6c1127h24,S6c1130h22,S6c1201h03,S6c1201h21,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S6c1126h19,S6c1126h20,S6c1130h23,S6c1201h04,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S6c1126h22,S6c1127h01,S6c1128h01,S6c1129h03,S6c1201h06,S6c1202h22,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S6c1126h02,S6c1127h21,S6c1128h04,S6c1129h05,S6c1129h06,S6c1129h20,S6c1130h24,S6c1201h05,S6c1201h22,S6c1202h06,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S6c1129h02,S6c1129h21,S6c1130h06,S6c1202h01,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S6c1127h19,S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S6c1127h03,S6c1128h22,S6c1128h24,S6c1130h02,S6c1201h01,S6c1201h20,S6c1202h03,S6c1202h05,S6c1202h20,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S6c1127h23,S6c1202h02,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S6c1126h04,S6c1126h21,S6c1130h05,S6c1202h21,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S6c1126h01,S6c1126h03,S6c1127h02,S6c1127h22,S6c1130h20,S6c1202h24,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S6c1127h04,S6c1127h05,S6c1127h06,S6c1128h02,S6c1130h19,S6c1201h19,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S6aH1,S6c1126h06,S6c1126h23,S6c1128h06,S6c1128h19,S6c1129h19,S6c1130h04,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S6c1126h24,S6c1127h20,S6c1128h03,S6c1128h05,S6c1129h04,S6c1130h03,S6c1202h04</v>
+        <v>S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S6c1127h03,S6c1128h22,S6c1128h24,S6c1130h02,S6c1201h01,S6c1201h20,S6c1202h03,S6c1202h05,S6c1202h20,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S6c1126h02,S6c1127h21,S6c1128h04,S6c1129h05,S6c1129h06,S6c1129h20,S6c1130h24,S6c1201h05,S6c1201h22,S6c1202h06,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S6c1127h19,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S6aH8,S6c1129h01,S6c1129h22,S6c1129h24,S6c1201h02,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S6c1129h02,S6c1129h21,S6c1130h06,S6c1202h01,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1126h05,S6c1128h21,S6c1128h23,S6c1129h23,S6c1130h21,S6c1201h23,S6c1202h19,S6c1202h23,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S6c1128h20,S6c1130h01,S6c1201h24,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S6aH1,S6c1126h06,S6c1126h23,S6c1128h06,S6c1128h19,S6c1129h19,S6c1130h04,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S6c1127h23,S6c1202h02,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S6c1126h22,S6c1127h01,S6c1128h01,S6c1129h03,S6c1201h06,S6c1202h22,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S6aH7,S6c1127h24,S6c1130h22,S6c1201h03,S6c1201h21,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S6c1126h19,S6c1126h20,S6c1130h23,S6c1201h04,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S6c1126h04,S6c1126h21,S6c1130h05,S6c1202h21,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S6c1126h24,S6c1127h20,S6c1128h03,S6c1128h05,S6c1129h04,S6c1130h03,S6c1202h04,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S6c1126h01,S6c1126h03,S6c1127h02,S6c1127h22,S6c1130h20,S6c1202h24,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S6c1127h04,S6c1127h05,S6c1127h06,S6c1128h02,S6c1130h19,S6c1201h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S6c1128h08,S6c1128h18,S6c1130h09,S6c1202h11,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S6c1126h10,S6c1127h09,S6c1127h11,S6c1129h12,S6c1130h10,S6c1130h14,S6c1130h15,S6c1201h16,S1b0108h10,S1b0109h07,S1b0113h09,S6c1126h11,S6c1127h15,S6c1130h07,S6c1201h09,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S6c1126h17,S6c1201h15,S6c1202h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S6c1126h14,S6c1129h17,S6c1130h18,S6c1202h10,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6c1127h10,S6c1127h16,S6c1127h17,S6c1128h14,S6c1201h07,S6c1201h08,S6c1202h13,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S6c1128h13,S6c1129h08,S6c1129h15,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S6c1126h15,S6c1127h13,S6c1129h18,S6c1130h11,S6c1201h11,S6c1202h08,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S6c1126h07,S6c1126h08,S6c1126h13,S6c1127h14,S6c1128h07,S6c1128h09,S6c1128h10,S6c1128h16,S6c1129h10,S6c1201h13,S6c1202h14,S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S6c1126h09,S6c1126h18,S6c1128h11,S6c1130h13,S6c1202h12,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S6aH5,S6c1127h08,S6c1127h18,S6c1128h12,S6c1129h09,S6c1129h11,S6c1129h16,S6c1130h08,S6c1130h17,S6c1201h12,S6c1202h15,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S6c1127h07,S6c1129h07,S6c1129h14,S1b0110h15,S1b0111h13,S1b0114h12,S6c1201h10,S6c1202h07,S6c1202h18,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S6c1126h16,S6c1128h15,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S6c1126h12,S6c1127h12,S6c1130h16,S6c1201h14,S6c1201h17,S6c1202h17,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S6aH3,S6aH4,S6c1128h17,S6c1129h13,S6c1130h12,S6c1201h18,S6c1202h09</v>
+        <v>S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S6c1126h09,S6c1126h18,S6c1128h11,S6c1130h13,S6c1202h12,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S6c1128h13,S6c1129h08,S6c1129h15,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S6c1126h07,S6c1126h08,S6c1126h13,S6c1127h14,S6c1128h07,S6c1128h09,S6c1128h10,S6c1128h16,S6c1129h10,S6c1201h13,S6c1202h14,S1b0108h10,S1b0109h07,S1b0113h09,S6c1126h11,S6c1127h15,S6c1130h07,S6c1201h09,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S6c1126h15,S6c1127h13,S6c1129h18,S6c1130h11,S6c1201h11,S6c1202h08,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S6c1128h08,S6c1128h18,S6c1130h09,S6c1202h11,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S6c1126h10,S6c1127h09,S6c1127h11,S6c1129h12,S6c1130h10,S6c1130h14,S6c1130h15,S6c1201h16,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S6c1126h12,S6c1127h12,S6c1130h16,S6c1201h14,S6c1201h17,S6c1202h17,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S6aH5,S6c1127h08,S6c1127h18,S6c1128h12,S6c1129h09,S6c1129h11,S6c1129h16,S6c1130h08,S6c1130h17,S6c1201h12,S6c1202h15,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6c1127h10,S6c1127h16,S6c1127h17,S6c1128h14,S6c1201h07,S6c1201h08,S6c1202h13,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S6c1126h17,S6c1201h15,S6c1202h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S6c1126h14,S6c1129h17,S6c1130h18,S6c1202h10,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S6c1127h07,S6c1129h07,S6c1129h14,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S6aH3,S6aH4,S6c1128h17,S6c1129h13,S6c1130h12,S6c1201h18,S6c1202h09,S1b0110h15,S1b0111h13,S1b0114h12,S6c1201h10,S6c1202h07,S6c1202h18,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S6c1126h16,S6c1128h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D9D822-94AC-422E-9D86-8D0684DCA7DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77976FE-73BE-40DE-B03A-C1D943E66017}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBFB74F-DF74-4D1E-9817-311B9A2F4F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B89ABE-EDF3-4A93-A315-2A77DA191806}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.24146805415687592</v>
+        <v>7.2664204990488979E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.12315094550744095</v>
+        <v>0.24146805415687592</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>7.2664204990488979E-2</v>
+        <v>0.17853865950542688</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.52122636231397557</v>
+        <v>6.2951773525791649E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>6.2951773525791649E-2</v>
+        <v>0.52122636231397557</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.17853865950542688</v>
+        <v>0.12315094550744095</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98364900-2A28-4C44-BB3C-E929B7E250EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052C63D-0A61-4A86-92F6-96EE35C46421}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
